--- a/pred_ohlcv/54/2019-11-01 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 PAY ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>89.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>2886.443</v>
+        <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>89.91333333333348</v>
+        <v>89.95166666666682</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F3" t="n">
-        <v>540.8276</v>
+        <v>2886.443</v>
       </c>
       <c r="G3" t="n">
-        <v>89.89500000000015</v>
+        <v>89.91333333333348</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>3613.3778</v>
+        <v>540.8276</v>
       </c>
       <c r="G4" t="n">
-        <v>89.87666666666681</v>
+        <v>89.89500000000015</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="C5" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="D5" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>89.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4413.0047</v>
+        <v>3613.3778</v>
       </c>
       <c r="G5" t="n">
-        <v>89.86666666666682</v>
+        <v>89.87666666666681</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C6" t="n">
         <v>90.8</v>
       </c>
-      <c r="C6" t="n">
-        <v>91</v>
-      </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="E6" t="n">
-        <v>90.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8335</v>
+        <v>4413.0047</v>
       </c>
       <c r="G6" t="n">
-        <v>89.86166666666682</v>
+        <v>89.86666666666682</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="C7" t="n">
         <v>91</v>
@@ -547,15 +567,18 @@
         <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="F7" t="n">
-        <v>2400</v>
+        <v>8335</v>
       </c>
       <c r="G7" t="n">
-        <v>89.85666666666681</v>
+        <v>89.86166666666682</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>91</v>
       </c>
       <c r="C8" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>5763</v>
+        <v>2400</v>
       </c>
       <c r="G8" t="n">
-        <v>89.85500000000015</v>
+        <v>89.85666666666681</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>91</v>
+      </c>
+      <c r="C9" t="n">
         <v>91.2</v>
       </c>
-      <c r="C9" t="n">
-        <v>91.40000000000001</v>
-      </c>
       <c r="D9" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="E9" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1995</v>
+        <v>5763</v>
       </c>
       <c r="G9" t="n">
-        <v>89.88500000000013</v>
+        <v>89.85500000000015</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C10" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="C10" t="n">
-        <v>91.59999999999999</v>
-      </c>
       <c r="D10" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F10" t="n">
-        <v>424</v>
+        <v>1995</v>
       </c>
       <c r="G10" t="n">
-        <v>89.92000000000013</v>
+        <v>89.88500000000013</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>91.59999999999999</v>
@@ -651,15 +683,18 @@
         <v>91.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>692</v>
+        <v>424</v>
       </c>
       <c r="G11" t="n">
-        <v>89.95333333333346</v>
+        <v>89.92000000000013</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>19616</v>
+        <v>692</v>
       </c>
       <c r="G12" t="n">
-        <v>89.99000000000014</v>
+        <v>89.95333333333346</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="C13" t="n">
         <v>91.7</v>
@@ -703,15 +741,18 @@
         <v>91.7</v>
       </c>
       <c r="E13" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="F13" t="n">
-        <v>8537</v>
+        <v>19616</v>
       </c>
       <c r="G13" t="n">
-        <v>90.0266666666668</v>
+        <v>89.99000000000014</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>91.7</v>
       </c>
       <c r="F14" t="n">
-        <v>800</v>
+        <v>8537</v>
       </c>
       <c r="G14" t="n">
-        <v>90.06333333333346</v>
+        <v>90.0266666666668</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>91.7</v>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="E15" t="n">
         <v>91.7</v>
       </c>
       <c r="F15" t="n">
-        <v>15610</v>
+        <v>800</v>
       </c>
       <c r="G15" t="n">
-        <v>90.10500000000012</v>
+        <v>90.06333333333346</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="C16" t="n">
         <v>92</v>
@@ -781,15 +828,18 @@
         <v>92</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7600</v>
+        <v>15610</v>
       </c>
       <c r="G16" t="n">
-        <v>90.14666666666679</v>
+        <v>90.10500000000012</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>92</v>
       </c>
       <c r="F17" t="n">
-        <v>1863.6412</v>
+        <v>7600</v>
       </c>
       <c r="G17" t="n">
-        <v>90.18833333333346</v>
+        <v>90.14666666666679</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>92</v>
       </c>
       <c r="C18" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="D18" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="E18" t="n">
         <v>92</v>
       </c>
       <c r="F18" t="n">
-        <v>1023</v>
+        <v>1863.6412</v>
       </c>
       <c r="G18" t="n">
-        <v>90.23333333333345</v>
+        <v>90.18833333333346</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>92</v>
+      </c>
+      <c r="C19" t="n">
         <v>92.2</v>
       </c>
-      <c r="C19" t="n">
-        <v>92.3</v>
-      </c>
       <c r="D19" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="E19" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="F19" t="n">
-        <v>5939</v>
+        <v>1023</v>
       </c>
       <c r="G19" t="n">
-        <v>90.28666666666679</v>
+        <v>90.23333333333345</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C20" t="n">
         <v>92.3</v>
       </c>
-      <c r="C20" t="n">
-        <v>92.7</v>
-      </c>
       <c r="D20" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="E20" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="F20" t="n">
-        <v>11797</v>
+        <v>5939</v>
       </c>
       <c r="G20" t="n">
-        <v>90.34166666666678</v>
+        <v>90.28666666666679</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="C21" t="n">
         <v>92.7</v>
@@ -911,15 +973,18 @@
         <v>92.7</v>
       </c>
       <c r="E21" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="F21" t="n">
-        <v>252</v>
+        <v>11797</v>
       </c>
       <c r="G21" t="n">
-        <v>90.37333333333345</v>
+        <v>90.34166666666678</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>92.7</v>
       </c>
       <c r="C22" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D22" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E22" t="n">
         <v>92.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11200</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
-        <v>90.43333333333344</v>
+        <v>90.37333333333345</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="C23" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="F23" t="n">
-        <v>4800</v>
+        <v>11200</v>
       </c>
       <c r="G23" t="n">
-        <v>90.49166666666677</v>
+        <v>90.43333333333344</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>92.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="G24" t="n">
-        <v>90.54166666666677</v>
+        <v>90.49166666666677</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>92.8</v>
       </c>
       <c r="C25" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D25" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E25" t="n">
         <v>92.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2161</v>
+        <v>8000</v>
       </c>
       <c r="G25" t="n">
-        <v>90.57833333333343</v>
+        <v>90.54166666666677</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C26" t="n">
         <v>92.90000000000001</v>
@@ -1041,16 +1118,19 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F26" t="n">
-        <v>9553</v>
+        <v>2161</v>
       </c>
       <c r="G26" t="n">
-        <v>90.63000000000009</v>
+        <v>90.57833333333343</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1070,13 +1150,16 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>15449</v>
+        <v>9553</v>
       </c>
       <c r="G27" t="n">
-        <v>90.68666666666675</v>
+        <v>90.63000000000009</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1093,16 +1176,19 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>3214.4569</v>
+        <v>15449</v>
       </c>
       <c r="G28" t="n">
-        <v>90.74333333333341</v>
+        <v>90.68666666666675</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1113,22 +1199,25 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>6378</v>
+        <v>3214.4569</v>
       </c>
       <c r="G29" t="n">
-        <v>90.8000000000001</v>
+        <v>90.74333333333341</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1225,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5873</v>
+        <v>6378</v>
       </c>
       <c r="G30" t="n">
-        <v>90.85333333333342</v>
+        <v>90.8000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1165,22 +1257,25 @@
         <v>92.7</v>
       </c>
       <c r="C31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E31" t="n">
         <v>92.7</v>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>5873</v>
       </c>
       <c r="G31" t="n">
-        <v>90.90666666666677</v>
+        <v>90.85333333333342</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G32" t="n">
-        <v>90.96333333333342</v>
+        <v>90.90666666666677</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>93</v>
       </c>
       <c r="F33" t="n">
-        <v>3076</v>
+        <v>8000</v>
       </c>
       <c r="G33" t="n">
-        <v>91.00833333333343</v>
+        <v>90.96333333333342</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,25 +1341,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>3076</v>
       </c>
       <c r="G34" t="n">
-        <v>91.05333333333343</v>
+        <v>91.00833333333343</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1370,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>982.5773</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>91.10000000000009</v>
+        <v>91.05333333333343</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>12400</v>
+        <v>982.5773</v>
       </c>
       <c r="G36" t="n">
-        <v>91.15500000000007</v>
+        <v>91.10000000000009</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>4800</v>
+        <v>12400</v>
       </c>
       <c r="G37" t="n">
-        <v>91.21000000000006</v>
+        <v>91.15500000000007</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G38" t="n">
-        <v>91.26666666666672</v>
+        <v>91.21000000000006</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="n">
-        <v>91.31333333333338</v>
+        <v>91.26666666666672</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="G40" t="n">
-        <v>91.36000000000004</v>
+        <v>91.31333333333338</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>2849</v>
+        <v>228</v>
       </c>
       <c r="G41" t="n">
-        <v>91.40833333333336</v>
+        <v>91.36000000000004</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>93</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>2849</v>
       </c>
       <c r="G42" t="n">
-        <v>91.45500000000003</v>
+        <v>91.40833333333336</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="E43" t="n">
         <v>93</v>
       </c>
       <c r="F43" t="n">
-        <v>4400</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>91.50833333333337</v>
+        <v>91.45500000000003</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="C44" t="n">
         <v>93.2</v>
@@ -1509,15 +1640,18 @@
         <v>93.2</v>
       </c>
       <c r="E44" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>4400</v>
       </c>
       <c r="G44" t="n">
-        <v>91.56333333333336</v>
+        <v>91.50833333333337</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="C45" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D45" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E45" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="F45" t="n">
-        <v>14593</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="n">
-        <v>91.64000000000003</v>
+        <v>91.56333333333336</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>93.90000000000001</v>
@@ -1561,15 +1698,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>32</v>
+        <v>14593</v>
       </c>
       <c r="G46" t="n">
-        <v>91.70833333333334</v>
+        <v>91.64000000000003</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
-        <v>91.78166666666668</v>
+        <v>91.70833333333334</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,13 +1759,16 @@
         <v>93.7</v>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G48" t="n">
-        <v>91.855</v>
+        <v>91.78166666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C49" t="n">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="D49" t="n">
         <v>93.7</v>
       </c>
       <c r="E49" t="n">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="F49" t="n">
-        <v>25504</v>
+        <v>800</v>
       </c>
       <c r="G49" t="n">
-        <v>91.91166666666666</v>
+        <v>91.855</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>93</v>
+      </c>
+      <c r="C50" t="n">
         <v>92.7</v>
       </c>
-      <c r="C50" t="n">
-        <v>91.8</v>
-      </c>
       <c r="D50" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E50" t="n">
         <v>92.7</v>
       </c>
-      <c r="E50" t="n">
-        <v>91.8</v>
-      </c>
       <c r="F50" t="n">
-        <v>26498.6252</v>
+        <v>25504</v>
       </c>
       <c r="G50" t="n">
-        <v>91.95333333333333</v>
+        <v>91.91166666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="C51" t="n">
-        <v>90.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="D51" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E51" t="n">
         <v>91.8</v>
       </c>
-      <c r="E51" t="n">
-        <v>90.09999999999999</v>
-      </c>
       <c r="F51" t="n">
-        <v>26401.9188</v>
+        <v>26498.6252</v>
       </c>
       <c r="G51" t="n">
-        <v>91.96833333333333</v>
+        <v>91.95333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>90.3</v>
+        <v>91</v>
       </c>
       <c r="C52" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>91.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="E52" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>38011.6506</v>
+        <v>26401.9188</v>
       </c>
       <c r="G52" t="n">
-        <v>91.98666666666668</v>
+        <v>91.96833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>92.5</v>
+        <v>90.3</v>
       </c>
       <c r="C53" t="n">
-        <v>93.3</v>
+        <v>90.3</v>
       </c>
       <c r="D53" t="n">
-        <v>93.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>92.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>10406</v>
+        <v>38011.6506</v>
       </c>
       <c r="G53" t="n">
-        <v>92.04000000000001</v>
+        <v>91.98666666666668</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="C54" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="E54" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>10406</v>
       </c>
       <c r="G54" t="n">
-        <v>92.08833333333334</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>93</v>
       </c>
       <c r="C55" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D55" t="n">
         <v>93</v>
       </c>
       <c r="E55" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F55" t="n">
-        <v>2808</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>92.13499999999999</v>
+        <v>92.08833333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="C56" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="E56" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>10659</v>
+        <v>2808</v>
       </c>
       <c r="G56" t="n">
-        <v>92.16666666666667</v>
+        <v>92.13499999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="C57" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D57" t="n">
         <v>92.8</v>
       </c>
       <c r="E57" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>10659</v>
       </c>
       <c r="G57" t="n">
-        <v>92.19666666666667</v>
+        <v>92.16666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="C58" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="D58" t="n">
         <v>92.8</v>
       </c>
       <c r="E58" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>21</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="n">
-        <v>92.24333333333334</v>
+        <v>92.19666666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1128</v>
+        <v>21</v>
       </c>
       <c r="G59" t="n">
-        <v>92.28666666666668</v>
+        <v>92.24333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1922,18 +2101,21 @@
         <v>92.59999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>5185</v>
+        <v>1128</v>
       </c>
       <c r="G60" t="n">
-        <v>92.33166666666669</v>
+        <v>92.28666666666668</v>
       </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="E61" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>5185</v>
       </c>
       <c r="G61" t="n">
-        <v>92.37833333333336</v>
+        <v>92.33166666666669</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>92.8</v>
       </c>
       <c r="F62" t="n">
-        <v>2380</v>
+        <v>800</v>
       </c>
       <c r="G62" t="n">
-        <v>92.43833333333336</v>
+        <v>92.37833333333336</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>92.8</v>
       </c>
       <c r="C63" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D63" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E63" t="n">
         <v>92.8</v>
       </c>
       <c r="F63" t="n">
-        <v>1345.7792</v>
+        <v>2380</v>
       </c>
       <c r="G63" t="n">
-        <v>92.48000000000003</v>
+        <v>92.43833333333336</v>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C64" t="n">
         <v>92.90000000000001</v>
@@ -2029,15 +2220,18 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>1345.7792</v>
       </c>
       <c r="G64" t="n">
-        <v>92.52000000000002</v>
+        <v>92.48000000000003</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="n">
-        <v>92.55500000000002</v>
+        <v>92.52000000000002</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>13205</v>
+        <v>2400</v>
       </c>
       <c r="G66" t="n">
-        <v>92.58666666666667</v>
+        <v>92.55500000000002</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>4671.8113</v>
+        <v>13205</v>
       </c>
       <c r="G67" t="n">
-        <v>92.61833333333334</v>
+        <v>92.58666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1577</v>
+        <v>4671.8113</v>
       </c>
       <c r="G68" t="n">
-        <v>92.64666666666668</v>
+        <v>92.61833333333334</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>7241</v>
+        <v>1577</v>
       </c>
       <c r="G69" t="n">
-        <v>92.67166666666667</v>
+        <v>92.64666666666668</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>14836</v>
+        <v>7241</v>
       </c>
       <c r="G70" t="n">
-        <v>92.69333333333333</v>
+        <v>92.67166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>14836</v>
       </c>
       <c r="G71" t="n">
-        <v>92.71499999999997</v>
+        <v>92.69333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>18572.092</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>92.74166666666665</v>
+        <v>92.71499999999997</v>
       </c>
       <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="D73" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="E73" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>18572.092</v>
       </c>
       <c r="G73" t="n">
-        <v>92.76999999999998</v>
+        <v>92.74166666666665</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>93.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>7017.3979</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>92.79999999999998</v>
+        <v>92.76999999999998</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C75" t="n">
         <v>93.5</v>
       </c>
-      <c r="C75" t="n">
-        <v>93.59999999999999</v>
-      </c>
       <c r="D75" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="E75" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>4328.9766</v>
+        <v>7017.3979</v>
       </c>
       <c r="G75" t="n">
-        <v>92.82666666666665</v>
+        <v>92.79999999999998</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="C76" t="n">
         <v>93.59999999999999</v>
@@ -2341,15 +2568,18 @@
         <v>93.59999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5013.4445</v>
+        <v>4328.9766</v>
       </c>
       <c r="G76" t="n">
-        <v>92.85333333333332</v>
+        <v>92.82666666666665</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E77" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>22415.9336</v>
+        <v>5013.4445</v>
       </c>
       <c r="G77" t="n">
-        <v>92.88166666666666</v>
+        <v>92.85333333333332</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2393,15 +2626,18 @@
         <v>93.7</v>
       </c>
       <c r="E78" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>8759</v>
+        <v>22415.9336</v>
       </c>
       <c r="G78" t="n">
-        <v>92.90666666666667</v>
+        <v>92.88166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>93.7</v>
       </c>
       <c r="C79" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D79" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E79" t="n">
         <v>93.7</v>
       </c>
       <c r="F79" t="n">
-        <v>11973.0075</v>
+        <v>8759</v>
       </c>
       <c r="G79" t="n">
-        <v>92.93333333333332</v>
+        <v>92.90666666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C80" t="n">
         <v>93.90000000000001</v>
@@ -2445,15 +2684,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1454.8523</v>
+        <v>11973.0075</v>
       </c>
       <c r="G80" t="n">
-        <v>92.95333333333332</v>
+        <v>92.93333333333332</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>2198.935</v>
+        <v>1454.8523</v>
       </c>
       <c r="G81" t="n">
-        <v>92.97333333333331</v>
+        <v>92.95333333333332</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>5702.3216</v>
+        <v>2198.935</v>
       </c>
       <c r="G82" t="n">
-        <v>92.98999999999998</v>
+        <v>92.97333333333331</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D83" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>2400</v>
+        <v>5702.3216</v>
       </c>
       <c r="G83" t="n">
-        <v>93.00666666666665</v>
+        <v>92.98999999999998</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,7 +2794,7 @@
         <v>93.8</v>
       </c>
       <c r="C84" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="D84" t="n">
         <v>93.90000000000001</v>
@@ -2552,12 +2803,15 @@
         <v>93.8</v>
       </c>
       <c r="F84" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G84" t="n">
-        <v>93.02499999999996</v>
+        <v>93.00666666666665</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C85" t="n">
         <v>93.90000000000001</v>
@@ -2575,15 +2829,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="G85" t="n">
-        <v>93.04166666666664</v>
+        <v>93.02499999999996</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="G86" t="n">
-        <v>93.05833333333331</v>
+        <v>93.04166666666664</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>5090</v>
+        <v>2800</v>
       </c>
       <c r="G87" t="n">
-        <v>93.07499999999997</v>
+        <v>93.05833333333331</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>5090</v>
       </c>
       <c r="G88" t="n">
-        <v>93.09166666666664</v>
+        <v>93.07499999999997</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>716</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
-        <v>93.10499999999996</v>
+        <v>93.09166666666664</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="G90" t="n">
-        <v>93.12499999999996</v>
+        <v>93.10499999999996</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G91" t="n">
-        <v>93.13833333333328</v>
+        <v>93.12499999999996</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,9 +3038,12 @@
         <v>1600</v>
       </c>
       <c r="G92" t="n">
-        <v>93.15333333333326</v>
+        <v>93.13833333333328</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G93" t="n">
-        <v>93.16833333333327</v>
+        <v>93.15333333333326</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2809,15 +3090,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>93.18499999999993</v>
+        <v>93.16833333333327</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C95" t="n">
         <v>93.90000000000001</v>
@@ -2835,15 +3119,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>93.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F95" t="n">
-        <v>17867</v>
+        <v>2800</v>
       </c>
       <c r="G95" t="n">
-        <v>93.20666666666658</v>
+        <v>93.18499999999993</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>93.90000000000001</v>
@@ -2861,15 +3148,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>4905</v>
+        <v>17867</v>
       </c>
       <c r="G96" t="n">
-        <v>93.22333333333326</v>
+        <v>93.20666666666658</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>800</v>
+        <v>4905</v>
       </c>
       <c r="G97" t="n">
-        <v>93.23999999999992</v>
+        <v>93.22333333333326</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G98" t="n">
-        <v>93.25666666666659</v>
+        <v>93.23999999999992</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>9727</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>93.27333333333326</v>
+        <v>93.25666666666659</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>203</v>
+        <v>9727</v>
       </c>
       <c r="G100" t="n">
-        <v>93.28999999999992</v>
+        <v>93.27333333333326</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>24951.9032</v>
+        <v>203</v>
       </c>
       <c r="G101" t="n">
         <v>93.28999999999992</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>93.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D102" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="F102" t="n">
-        <v>7200</v>
+        <v>24951.9032</v>
       </c>
       <c r="G102" t="n">
-        <v>93.30499999999991</v>
+        <v>93.28999999999992</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C103" t="n">
         <v>93.90000000000001</v>
@@ -3043,15 +3351,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F103" t="n">
-        <v>1753.8828</v>
+        <v>7200</v>
       </c>
       <c r="G103" t="n">
-        <v>93.31666666666658</v>
+        <v>93.30499999999991</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>3898</v>
+        <v>1753.8828</v>
       </c>
       <c r="G104" t="n">
-        <v>93.32833333333323</v>
+        <v>93.31666666666658</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>538.2356</v>
+        <v>3898</v>
       </c>
       <c r="G105" t="n">
-        <v>93.31499999999991</v>
+        <v>93.32833333333323</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>37043.566</v>
+        <v>538.2356</v>
       </c>
       <c r="G106" t="n">
         <v>93.31499999999991</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C107" t="n">
         <v>93.90000000000001</v>
@@ -3147,15 +3467,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F107" t="n">
-        <v>117</v>
+        <v>37043.566</v>
       </c>
       <c r="G107" t="n">
-        <v>93.31833333333324</v>
+        <v>93.31499999999991</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>2797</v>
+        <v>117</v>
       </c>
       <c r="G108" t="n">
-        <v>93.32166666666657</v>
+        <v>93.31833333333324</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D109" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>7910</v>
+        <v>2797</v>
       </c>
       <c r="G109" t="n">
-        <v>93.31666666666658</v>
+        <v>93.32166666666657</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>93.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>93.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>7910</v>
       </c>
       <c r="G110" t="n">
-        <v>93.35166666666656</v>
+        <v>93.31666666666658</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C111" t="n">
         <v>93.90000000000001</v>
@@ -3251,15 +3583,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F111" t="n">
-        <v>667.4760383386581</v>
+        <v>800</v>
       </c>
       <c r="G111" t="n">
-        <v>93.41499999999989</v>
+        <v>93.35166666666656</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>600.4366347177848</v>
+        <v>667.4760383386581</v>
       </c>
       <c r="G112" t="n">
-        <v>93.47499999999988</v>
+        <v>93.41499999999989</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>417.7955</v>
+        <v>600.4366347177848</v>
       </c>
       <c r="G113" t="n">
-        <v>93.48499999999987</v>
+        <v>93.47499999999988</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>2800</v>
+        <v>417.7955</v>
       </c>
       <c r="G114" t="n">
-        <v>93.49999999999986</v>
+        <v>93.48499999999987</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>6400</v>
+        <v>2800</v>
       </c>
       <c r="G115" t="n">
-        <v>93.51666666666652</v>
+        <v>93.49999999999986</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="G116" t="n">
-        <v>93.53499999999985</v>
+        <v>93.51666666666652</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3407,15 +3757,18 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>7504.2375</v>
+        <v>5200</v>
       </c>
       <c r="G117" t="n">
-        <v>93.55499999999985</v>
+        <v>93.53499999999985</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>93.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>400</v>
+        <v>7504.2375</v>
       </c>
       <c r="G118" t="n">
-        <v>93.57166666666652</v>
+        <v>93.55499999999985</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>93.8</v>
       </c>
       <c r="C119" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="D119" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="E119" t="n">
         <v>93.8</v>
       </c>
       <c r="F119" t="n">
-        <v>6800</v>
+        <v>400</v>
       </c>
       <c r="G119" t="n">
-        <v>93.59499999999984</v>
+        <v>93.57166666666652</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C120" t="n">
         <v>94</v>
       </c>
-      <c r="C120" t="n">
-        <v>94.90000000000001</v>
-      </c>
       <c r="D120" t="n">
-        <v>94.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="E120" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="G120" t="n">
-        <v>93.63333333333317</v>
+        <v>93.59499999999984</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,544 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>94</v>
+      </c>
+      <c r="C121" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="C121" t="n">
-        <v>95</v>
-      </c>
       <c r="D121" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>94.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="F121" t="n">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="n">
-        <v>93.66999999999983</v>
+        <v>93.63333333333317</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>95</v>
-      </c>
-      <c r="C122" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>95</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G122" t="n">
-        <v>93.71499999999983</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G123" t="n">
-        <v>93.75833333333317</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>99</v>
-      </c>
-      <c r="D124" t="n">
-        <v>99</v>
-      </c>
-      <c r="E124" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>95748.76720919192</v>
-      </c>
-      <c r="G124" t="n">
-        <v>93.85999999999984</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>99</v>
-      </c>
-      <c r="D125" t="n">
-        <v>99</v>
-      </c>
-      <c r="E125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3314.0707</v>
-      </c>
-      <c r="G125" t="n">
-        <v>93.96166666666652</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E126" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1888.28</v>
-      </c>
-      <c r="G126" t="n">
-        <v>94.03166666666652</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>981.6154</v>
-      </c>
-      <c r="G127" t="n">
-        <v>94.10166666666653</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>635</v>
-      </c>
-      <c r="G128" t="n">
-        <v>94.17166666666655</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1409.1366</v>
-      </c>
-      <c r="G129" t="n">
-        <v>94.24166666666656</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>362.304</v>
-      </c>
-      <c r="G130" t="n">
-        <v>94.30499999999989</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>800</v>
-      </c>
-      <c r="G131" t="n">
-        <v>94.36999999999991</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10047.9751</v>
-      </c>
-      <c r="G132" t="n">
-        <v>94.42833333333324</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>800</v>
-      </c>
-      <c r="G133" t="n">
-        <v>94.48499999999991</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6910.6301</v>
-      </c>
-      <c r="G134" t="n">
-        <v>94.53999999999992</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>800</v>
-      </c>
-      <c r="G135" t="n">
-        <v>94.59333333333325</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>800</v>
-      </c>
-      <c r="G136" t="n">
-        <v>94.64499999999991</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D137" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E137" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G137" t="n">
-        <v>94.69333333333324</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C138" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G138" t="n">
-        <v>94.74333333333325</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3933.7034</v>
-      </c>
-      <c r="G139" t="n">
-        <v>94.77166666666659</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G140" t="n">
-        <v>94.81833333333326</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>7200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>94.8666666666666</v>
-      </c>
-      <c r="H141" t="n">
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
